--- a/resultados/resultados_slot06.xlsx
+++ b/resultados/resultados_slot06.xlsx
@@ -501,7 +501,7 @@
         <v>141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06145811080932617</v>
+        <v>0.05864906311035156</v>
       </c>
       <c r="G2" t="n">
         <v>9.805786450966797e-06</v>
@@ -541,7 +541,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01060700416564941</v>
+        <v>0.01173067092895508</v>
       </c>
       <c r="G3" t="n">
         <v>6.560560057627505e-06</v>
@@ -581,7 +581,7 @@
         <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02121734619140625</v>
+        <v>0.01888346672058105</v>
       </c>
       <c r="G4" t="n">
         <v>9.748878222381665e-06</v>
@@ -621,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004269838333129883</v>
+        <v>0.004250526428222656</v>
       </c>
       <c r="G5" t="n">
         <v>9.022099894415127e-06</v>
@@ -661,7 +661,7 @@
         <v>10000</v>
       </c>
       <c r="F6" t="n">
-        <v>2.895024061203003</v>
+        <v>2.249943733215332</v>
       </c>
       <c r="G6" t="n">
         <v>2806.511685527539</v>
@@ -701,7 +701,7 @@
         <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>2.187931776046753</v>
+        <v>3.020861625671387</v>
       </c>
       <c r="G7" t="n">
         <v>2806.533925014461</v>
@@ -741,7 +741,7 @@
         <v>89</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01796054840087891</v>
+        <v>0.07368826866149902</v>
       </c>
       <c r="G8" t="n">
         <v>9.76926841755971e-06</v>
@@ -781,7 +781,7 @@
         <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02104449272155762</v>
+        <v>0.05919718742370605</v>
       </c>
       <c r="G9" t="n">
         <v>7.869567607455304e-06</v>
@@ -821,7 +821,7 @@
         <v>122</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05548238754272461</v>
+        <v>0.1424975395202637</v>
       </c>
       <c r="G10" t="n">
         <v>9.977149992654733e-06</v>
@@ -861,7 +861,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0463407039642334</v>
+        <v>0.03033733367919922</v>
       </c>
       <c r="G11" t="n">
         <v>8.544082861094261e-06</v>
@@ -901,7 +901,7 @@
         <v>51</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04047584533691406</v>
+        <v>0.02600550651550293</v>
       </c>
       <c r="G12" t="n">
         <v>9.114050217534808e-06</v>
@@ -941,7 +941,7 @@
         <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02879714965820312</v>
+        <v>0.02890968322753906</v>
       </c>
       <c r="G13" t="n">
         <v>8.866910115066646e-06</v>
@@ -981,7 +981,7 @@
         <v>10000</v>
       </c>
       <c r="F14" t="n">
-        <v>7.358712911605835</v>
+        <v>5.380523443222046</v>
       </c>
       <c r="G14" t="n">
         <v>4.166961925173416</v>
@@ -1021,7 +1021,7 @@
         <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>5.751931428909302</v>
+        <v>5.091865539550781</v>
       </c>
       <c r="G15" t="n">
         <v>4.166966398129649</v>
@@ -1061,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02431011199951172</v>
+        <v>0.02398276329040527</v>
       </c>
       <c r="G16" t="n">
         <v>9.127750037316093e-06</v>
@@ -1101,7 +1101,7 @@
         <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02477312088012695</v>
+        <v>0.01990938186645508</v>
       </c>
       <c r="G17" t="n">
         <v>8.640031251307833e-06</v>
@@ -1141,7 +1141,7 @@
         <v>146</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00432276725769043</v>
+        <v>0.004288434982299805</v>
       </c>
       <c r="G18" t="n">
         <v>9.955822257448955e-06</v>
@@ -1181,7 +1181,7 @@
         <v>113</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002954006195068359</v>
+        <v>0.003619670867919922</v>
       </c>
       <c r="G19" t="n">
         <v>9.922720068225892e-06</v>
@@ -1221,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005631446838378906</v>
+        <v>0.0006768703460693359</v>
       </c>
       <c r="G20" t="n">
         <v>3.016523594064252e-06</v>
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000530242919921875</v>
+        <v>0.0006339550018310547</v>
       </c>
       <c r="G21" t="n">
         <v>7.602870550148181e-06</v>
@@ -1301,7 +1301,7 @@
         <v>10000</v>
       </c>
       <c r="F22" t="n">
-        <v>0.779487133026123</v>
+        <v>0.8418872356414795</v>
       </c>
       <c r="G22" t="n">
         <v>2702994.218230997</v>
@@ -1341,7 +1341,7 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7506568431854248</v>
+        <v>0.978928804397583</v>
       </c>
       <c r="G23" t="n">
         <v>2703036.934429582</v>
@@ -1381,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0006241798400878906</v>
+        <v>0.0006830692291259766</v>
       </c>
       <c r="G24" t="n">
         <v>3.018805863136864e-06</v>
@@ -1421,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0009229183197021484</v>
+        <v>0.001009464263916016</v>
       </c>
       <c r="G25" t="n">
         <v>4.082765690227787e-06</v>
@@ -1461,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007511377334594727</v>
+        <v>0.00735163688659668</v>
       </c>
       <c r="G26" t="n">
         <v>9.252152422390497e-06</v>
@@ -1501,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004713773727416992</v>
+        <v>0.00486445426940918</v>
       </c>
       <c r="G27" t="n">
         <v>4.2533619114171e-06</v>
@@ -1541,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="F28" t="n">
-        <v>0.009707450866699219</v>
+        <v>0.009561538696289062</v>
       </c>
       <c r="G28" t="n">
         <v>9.55203432750891e-06</v>
@@ -1581,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="F29" t="n">
-        <v>0.009688615798950195</v>
+        <v>0.01154422760009766</v>
       </c>
       <c r="G29" t="n">
         <v>8.269990943695103e-06</v>
@@ -1621,7 +1621,7 @@
         <v>10000</v>
       </c>
       <c r="F30" t="n">
-        <v>5.576491355895996</v>
+        <v>5.637689352035522</v>
       </c>
       <c r="G30" t="n">
         <v>8.146549615729251</v>
@@ -1661,7 +1661,7 @@
         <v>10000</v>
       </c>
       <c r="F31" t="n">
-        <v>5.561285972595215</v>
+        <v>5.272324800491333</v>
       </c>
       <c r="G31" t="n">
         <v>8.146568000855204</v>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01756954193115234</v>
+        <v>0.01115298271179199</v>
       </c>
       <c r="G32" t="n">
         <v>9.552332452717786e-06</v>
@@ -1741,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01584458351135254</v>
+        <v>0.0107419490814209</v>
       </c>
       <c r="G33" t="n">
         <v>6.339826030412903e-06</v>
@@ -1781,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0004978179931640625</v>
+        <v>0.0004947185516357422</v>
       </c>
       <c r="G34" t="n">
         <v>9.562002679445119e-06</v>
@@ -1821,7 +1821,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0002899169921875</v>
+        <v>0.0002989768981933594</v>
       </c>
       <c r="G35" t="n">
         <v>5.946927229319535e-06</v>
@@ -1861,7 +1861,7 @@
         <v>31</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001796722412109375</v>
+        <v>0.001936674118041992</v>
       </c>
       <c r="G36" t="n">
         <v>9.976384175612393e-06</v>
@@ -1901,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001923322677612305</v>
+        <v>0.001879692077636719</v>
       </c>
       <c r="G37" t="n">
         <v>8.699153178379626e-06</v>
@@ -1941,7 +1941,7 @@
         <v>10000</v>
       </c>
       <c r="F38" t="n">
-        <v>0.715411901473999</v>
+        <v>0.7012498378753662</v>
       </c>
       <c r="G38" t="n">
         <v>1.002102371301494</v>
@@ -1981,7 +1981,7 @@
         <v>10000</v>
       </c>
       <c r="F39" t="n">
-        <v>0.663405179977417</v>
+        <v>0.8895258903503418</v>
       </c>
       <c r="G39" t="n">
         <v>1.002102360839213</v>
@@ -2021,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="F40" t="n">
-        <v>0.002172470092773438</v>
+        <v>0.002729892730712891</v>
       </c>
       <c r="G40" t="n">
         <v>9.976952379310242e-06</v>
@@ -2061,7 +2061,7 @@
         <v>27</v>
       </c>
       <c r="F41" t="n">
-        <v>0.003075599670410156</v>
+        <v>0.003929615020751953</v>
       </c>
       <c r="G41" t="n">
         <v>8.974432538436802e-06</v>
@@ -2101,7 +2101,7 @@
         <v>29</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003716945648193359</v>
+        <v>0.004153013229370117</v>
       </c>
       <c r="G42" t="n">
         <v>9.924632107609445e-06</v>
@@ -2141,7 +2141,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>0.002463817596435547</v>
+        <v>0.002676010131835938</v>
       </c>
       <c r="G43" t="n">
         <v>7.018645019692359e-06</v>
@@ -2181,7 +2181,7 @@
         <v>32</v>
       </c>
       <c r="F44" t="n">
-        <v>0.005567073822021484</v>
+        <v>0.00649571418762207</v>
       </c>
       <c r="G44" t="n">
         <v>7.422873671162854e-06</v>
@@ -2221,7 +2221,7 @@
         <v>31</v>
       </c>
       <c r="F45" t="n">
-        <v>0.005246639251708984</v>
+        <v>0.006093025207519531</v>
       </c>
       <c r="G45" t="n">
         <v>8.71200331223046e-06</v>
@@ -2261,7 +2261,7 @@
         <v>10000</v>
       </c>
       <c r="F46" t="n">
-        <v>1.962492704391479</v>
+        <v>2.33572244644165</v>
       </c>
       <c r="G46" t="n">
         <v>101815.5480952776</v>
@@ -2301,7 +2301,7 @@
         <v>10000</v>
       </c>
       <c r="F47" t="n">
-        <v>1.881369113922119</v>
+        <v>2.269218921661377</v>
       </c>
       <c r="G47" t="n">
         <v>101816.3242390015</v>
@@ -2341,7 +2341,7 @@
         <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>0.005679130554199219</v>
+        <v>0.02112555503845215</v>
       </c>
       <c r="G48" t="n">
         <v>7.423201331145856e-06</v>
@@ -2381,7 +2381,7 @@
         <v>27</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00836491584777832</v>
+        <v>0.0179903507232666</v>
       </c>
       <c r="G49" t="n">
         <v>8.311743781688965e-06</v>
@@ -2421,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0008115768432617188</v>
+        <v>0.001406431198120117</v>
       </c>
       <c r="G50" t="n">
         <v>9.999999894941483e-09</v>
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0007770061492919922</v>
+        <v>0.00156855583190918</v>
       </c>
       <c r="G51" t="n">
         <v>9.999999894941483e-09</v>
@@ -2501,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0005738735198974609</v>
+        <v>0.001864194869995117</v>
       </c>
       <c r="G52" t="n">
         <v>9.999999894941483e-09</v>
@@ -2541,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0003752708435058594</v>
+        <v>0.00166630744934082</v>
       </c>
       <c r="G53" t="n">
         <v>9.999999894941483e-09</v>
@@ -2581,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0005233287811279297</v>
+        <v>0.0012664794921875</v>
       </c>
       <c r="G54" t="n">
         <v>9.999999894941483e-09</v>
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00032806396484375</v>
+        <v>0.0008709430694580078</v>
       </c>
       <c r="G55" t="n">
         <v>9.999999894941483e-09</v>
@@ -2661,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0002875328063964844</v>
+        <v>0.0006797313690185547</v>
       </c>
       <c r="G56" t="n">
         <v>9.999999894941483e-09</v>
@@ -2701,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0003244876861572266</v>
+        <v>0.0006282329559326172</v>
       </c>
       <c r="G57" t="n">
         <v>9.999999894941483e-09</v>
@@ -2741,7 +2741,7 @@
         <v>103</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002285242080688477</v>
+        <v>0.003407001495361328</v>
       </c>
       <c r="G58" t="n">
         <v>9.517078553123515e-06</v>
@@ -2781,7 +2781,7 @@
         <v>66</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001671552658081055</v>
+        <v>0.002050876617431641</v>
       </c>
       <c r="G59" t="n">
         <v>9.11724329003657e-06</v>
@@ -2821,7 +2821,7 @@
         <v>86</v>
       </c>
       <c r="F60" t="n">
-        <v>0.006304264068603516</v>
+        <v>0.008645534515380859</v>
       </c>
       <c r="G60" t="n">
         <v>9.877517895744768e-06</v>
@@ -2861,7 +2861,7 @@
         <v>26</v>
       </c>
       <c r="F61" t="n">
-        <v>0.001730203628540039</v>
+        <v>0.002398252487182617</v>
       </c>
       <c r="G61" t="n">
         <v>9.855894333407518e-06</v>
@@ -2901,7 +2901,7 @@
         <v>10000</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7187542915344238</v>
+        <v>0.8245980739593506</v>
       </c>
       <c r="G62" t="n">
         <v>319.6864437108163</v>
@@ -2941,7 +2941,7 @@
         <v>10000</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7112734317779541</v>
+        <v>0.7270865440368652</v>
       </c>
       <c r="G63" t="n">
         <v>319.687668823724</v>
@@ -2981,7 +2981,7 @@
         <v>86</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005739450454711914</v>
+        <v>0.006160259246826172</v>
       </c>
       <c r="G64" t="n">
         <v>9.883099860144778e-06</v>
@@ -3021,7 +3021,7 @@
         <v>30</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003537893295288086</v>
+        <v>0.003855466842651367</v>
       </c>
       <c r="G65" t="n">
         <v>7.640081216919271e-06</v>
@@ -3061,7 +3061,7 @@
         <v>130</v>
       </c>
       <c r="F66" t="n">
-        <v>0.007100820541381836</v>
+        <v>0.008285999298095703</v>
       </c>
       <c r="G66" t="n">
         <v>9.577905122535048e-06</v>
@@ -3101,7 +3101,7 @@
         <v>87</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00536036491394043</v>
+        <v>0.005822181701660156</v>
       </c>
       <c r="G67" t="n">
         <v>9.757291252869126e-06</v>
@@ -3141,7 +3141,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001633882522583008</v>
+        <v>0.001739501953125</v>
       </c>
       <c r="G68" t="n">
         <v>6.078697951276709e-06</v>
@@ -3181,7 +3181,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="n">
-        <v>0.004518985748291016</v>
+        <v>0.005121231079101562</v>
       </c>
       <c r="G69" t="n">
         <v>8.94358313425952e-06</v>
@@ -3221,7 +3221,7 @@
         <v>10000</v>
       </c>
       <c r="F70" t="n">
-        <v>1.165728092193604</v>
+        <v>1.298239469528198</v>
       </c>
       <c r="G70" t="n">
         <v>2260633.947779731</v>
@@ -3261,7 +3261,7 @@
         <v>10000</v>
       </c>
       <c r="F71" t="n">
-        <v>1.178200006484985</v>
+        <v>1.26311206817627</v>
       </c>
       <c r="G71" t="n">
         <v>2260651.177271004</v>
@@ -3301,7 +3301,7 @@
         <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001779317855834961</v>
+        <v>0.001670598983764648</v>
       </c>
       <c r="G72" t="n">
         <v>6.273056089763625e-06</v>
@@ -3341,7 +3341,7 @@
         <v>16</v>
       </c>
       <c r="F73" t="n">
-        <v>0.002681255340576172</v>
+        <v>0.002636432647705078</v>
       </c>
       <c r="G73" t="n">
         <v>4.043910876896389e-06</v>
@@ -3381,7 +3381,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04140639305114746</v>
+        <v>0.04073667526245117</v>
       </c>
       <c r="G74" t="n">
         <v>8.417034404742397e-06</v>
@@ -3421,7 +3421,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01994776725769043</v>
+        <v>0.02484536170959473</v>
       </c>
       <c r="G75" t="n">
         <v>9.606184629743818e-06</v>
@@ -3461,7 +3461,7 @@
         <v>43</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0442349910736084</v>
+        <v>0.05505537986755371</v>
       </c>
       <c r="G76" t="n">
         <v>8.276155562598959e-06</v>
@@ -3501,7 +3501,7 @@
         <v>42</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04950213432312012</v>
+        <v>0.05556273460388184</v>
       </c>
       <c r="G77" t="n">
         <v>8.70888843887904e-06</v>
@@ -3541,7 +3541,7 @@
         <v>10000</v>
       </c>
       <c r="F78" t="n">
-        <v>11.28571200370789</v>
+        <v>10.73735165596008</v>
       </c>
       <c r="G78" t="n">
         <v>33.23737517503606</v>
@@ -3581,7 +3581,7 @@
         <v>10000</v>
       </c>
       <c r="F79" t="n">
-        <v>13.16034770011902</v>
+        <v>10.40159368515015</v>
       </c>
       <c r="G79" t="n">
         <v>33.23736263441405</v>
@@ -3621,7 +3621,7 @@
         <v>43</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07593584060668945</v>
+        <v>0.04035615921020508</v>
       </c>
       <c r="G80" t="n">
         <v>8.276926036144869e-06</v>
@@ -3661,7 +3661,7 @@
         <v>34</v>
       </c>
       <c r="F81" t="n">
-        <v>0.06539392471313477</v>
+        <v>0.03512716293334961</v>
       </c>
       <c r="G81" t="n">
         <v>8.666919363554039e-06</v>

--- a/resultados/resultados_slot06.xlsx
+++ b/resultados/resultados_slot06.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28131.9510377264</v>
+        <v>47756316.74668948</v>
       </c>
       <c r="E2" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05582213401794434</v>
+        <v>0.01424145698547363</v>
       </c>
       <c r="G2" t="n">
-        <v>1086</v>
+        <v>485</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28140.67049436026</v>
+        <v>47811793.47930697</v>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01999592781066895</v>
+        <v>0.007976293563842773</v>
       </c>
       <c r="G3" t="n">
-        <v>1086</v>
+        <v>485</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.40996996333015</v>
+        <v>39536719.78976859</v>
       </c>
       <c r="E4" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0831451416015625</v>
+        <v>0.02557182312011719</v>
       </c>
       <c r="G4" t="n">
-        <v>1473</v>
+        <v>817</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.41578254765199</v>
+        <v>39549333.10608483</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03833866119384766</v>
+        <v>0.0195920467376709</v>
       </c>
       <c r="G5" t="n">
-        <v>1473</v>
+        <v>817</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47756316.74668948</v>
+        <v>31.57768332328855</v>
       </c>
       <c r="E6" t="n">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003704547882080078</v>
+        <v>0.02042293548583984</v>
       </c>
       <c r="G6" t="n">
-        <v>485</v>
+        <v>1473</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47811793.47930697</v>
+        <v>31.57822523533776</v>
       </c>
       <c r="E7" t="n">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003336191177368164</v>
+        <v>0.01172065734863281</v>
       </c>
       <c r="G7" t="n">
-        <v>485</v>
+        <v>1473</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31.57768332328855</v>
+        <v>0.00973740970842194</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01369833946228027</v>
+        <v>0.001723289489746094</v>
       </c>
       <c r="G8" t="n">
-        <v>1473</v>
+        <v>138</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,16 +749,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31.57822523533776</v>
+        <v>0.009737699457095711</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007934093475341797</v>
+        <v>0.0009152889251708984</v>
       </c>
       <c r="G9" t="n">
-        <v>1473</v>
+        <v>138</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.00973740970842194</v>
+        <v>13.40996996333015</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000637054443359375</v>
+        <v>0.1330757141113281</v>
       </c>
       <c r="G10" t="n">
-        <v>138</v>
+        <v>1473</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.009737699457095711</v>
+        <v>13.41578254765199</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003821849822998047</v>
+        <v>0.08216667175292969</v>
       </c>
       <c r="G11" t="n">
-        <v>138</v>
+        <v>1473</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1444020.255745148</v>
+        <v>2509.898102518885</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008422136306762695</v>
+        <v>0.008035898208618164</v>
       </c>
       <c r="G12" t="n">
-        <v>1074</v>
+        <v>420</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1444053.928888656</v>
+        <v>2510.150448699714</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009831428527832031</v>
+        <v>0.00531005859375</v>
       </c>
       <c r="G13" t="n">
-        <v>1074</v>
+        <v>420</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.000259020384904</v>
+        <v>177.2629905522275</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001087665557861328</v>
+        <v>0.08952641487121582</v>
       </c>
       <c r="G14" t="n">
-        <v>1083</v>
+        <v>2003</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.000259020384904</v>
+        <v>177.2664225281739</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001116752624511719</v>
+        <v>0.0450890064239502</v>
       </c>
       <c r="G15" t="n">
-        <v>1083</v>
+        <v>2003</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2509.898102518885</v>
+        <v>1444020.255745148</v>
       </c>
       <c r="E16" t="n">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00289463996887207</v>
+        <v>0.0133514404296875</v>
       </c>
       <c r="G16" t="n">
-        <v>420</v>
+        <v>1074</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2510.150448699714</v>
+        <v>1444053.928888656</v>
       </c>
       <c r="E17" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002111911773681641</v>
+        <v>0.005799770355224609</v>
       </c>
       <c r="G17" t="n">
-        <v>420</v>
+        <v>1074</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1082,16 +1082,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39536719.78976859</v>
+        <v>0.000259020384904</v>
       </c>
       <c r="E18" t="n">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01330924034118652</v>
+        <v>0.001756668090820312</v>
       </c>
       <c r="G18" t="n">
-        <v>817</v>
+        <v>1083</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39549333.10608483</v>
+        <v>0.000259020384904</v>
       </c>
       <c r="E19" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005373954772949219</v>
+        <v>0.002063512802124023</v>
       </c>
       <c r="G19" t="n">
-        <v>817</v>
+        <v>1083</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>177.2629905522275</v>
+        <v>28131.9510377264</v>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04352807998657227</v>
+        <v>0.06348395347595215</v>
       </c>
       <c r="G20" t="n">
-        <v>2003</v>
+        <v>1086</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>177.2664225281739</v>
+        <v>28140.67049436026</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0250093936920166</v>
+        <v>0.02787899971008301</v>
       </c>
       <c r="G21" t="n">
-        <v>2003</v>
+        <v>1086</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
